--- a/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe V6</t>
+    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe</t>
   </si>
   <si>
     <t>bj_oncho_bsa_2_capture_form_202207</t>
@@ -470,12 +470,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,8 +507,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -516,6 +517,44 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,17 +568,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -553,24 +583,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -585,43 +614,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -636,7 +629,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -657,7 +673,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -669,7 +709,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,19 +781,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +817,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,97 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -871,6 +887,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -916,6 +956,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -930,178 +979,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1160,7 +1182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
@@ -1203,11 +1225,13 @@
     <cellStyle name="Title" xfId="39" builtinId="15"/>
     <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
     <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Heading 2" xfId="42" builtinId="17"/>
-    <cellStyle name="Comma" xfId="43" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="44" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="45" builtinId="40"/>
-    <cellStyle name="Percent" xfId="46" builtinId="5"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
@@ -1485,7 +1509,7 @@
   <sheetPr/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3502,8 +3526,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
@@ -456,10 +456,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe</t>
-  </si>
-  <si>
-    <t>bj_oncho_bsa_2_capture_form_202207</t>
+    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe V3</t>
+  </si>
+  <si>
+    <t>bj_oncho_bsa_2_capture_form_202207_v3</t>
   </si>
   <si>
     <t>French</t>
@@ -470,9 +470,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -523,9 +523,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -538,7 +554,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -554,30 +615,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,39 +637,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -635,24 +650,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,7 +673,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,31 +709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +745,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,25 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,55 +847,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,6 +882,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -901,21 +916,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -926,6 +926,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -947,17 +958,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -965,159 +965,159 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3527,7 +3527,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="150">
   <si>
     <t>type</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>16:00 - 17:00</t>
+  </si>
+  <si>
+    <t>17:00 - 18:00</t>
   </si>
   <si>
     <t>weather_list</t>
@@ -470,9 +473,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -507,9 +510,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,34 +525,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,8 +548,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,9 +564,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -599,7 +579,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,44 +655,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -673,25 +676,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,19 +694,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,13 +724,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +748,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,61 +844,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -835,25 +856,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,6 +933,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -937,6 +955,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -955,175 +982,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1929,12 +1932,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2073,18 +2076,18 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
         <v>74</v>
       </c>
-      <c r="B12" t="s">
-        <v>75</v>
-      </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -2095,7 +2098,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -2104,14 +2107,14 @@
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2155,7 +2158,7 @@
       <c r="B20" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2335,18 +2338,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>62</v>
-      </c>
-      <c r="B38" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C37" t="s">
         <v>99</v>
-      </c>
-      <c r="D38" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2360,7 +2360,7 @@
         <v>100</v>
       </c>
       <c r="D39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2388,7 +2388,7 @@
         <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2416,7 +2416,7 @@
         <v>104</v>
       </c>
       <c r="D43" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2430,7 +2430,7 @@
         <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2458,7 +2458,7 @@
         <v>107</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2486,7 +2486,7 @@
         <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2500,7 +2500,7 @@
         <v>110</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2542,7 +2542,7 @@
         <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2584,7 +2584,7 @@
         <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>117</v>
       </c>
       <c r="D56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2654,7 +2654,7 @@
         <v>121</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2696,7 +2696,7 @@
         <v>124</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2738,7 +2738,7 @@
         <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2766,7 +2766,7 @@
         <v>129</v>
       </c>
       <c r="D68" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2780,7 +2780,7 @@
         <v>130</v>
       </c>
       <c r="D69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2808,7 +2808,7 @@
         <v>132</v>
       </c>
       <c r="D71" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2836,7 +2836,7 @@
         <v>134</v>
       </c>
       <c r="D73" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2850,7 +2850,7 @@
         <v>135</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2864,7 +2864,7 @@
         <v>136</v>
       </c>
       <c r="D75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2878,7 +2878,7 @@
         <v>137</v>
       </c>
       <c r="D76" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2920,32 +2920,32 @@
         <v>140</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" t="s">
         <v>141</v>
       </c>
-      <c r="B81">
-        <v>101</v>
-      </c>
-      <c r="C81">
-        <v>101</v>
-      </c>
-      <c r="E81" t="s">
-        <v>106</v>
+      <c r="C80" t="s">
+        <v>141</v>
+      </c>
+      <c r="D80" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B82">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C82">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E82" t="s">
         <v>107</v>
@@ -2953,27 +2953,27 @@
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B83">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B84">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E84" t="s">
         <v>121</v>
@@ -2981,69 +2981,69 @@
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B85">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C85">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B86">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C86">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E86" t="s">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B87">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C87">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B88">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C88">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B89">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C89">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E89" t="s">
         <v>113</v>
@@ -3051,41 +3051,41 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B90">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C90">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E90" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B91">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C91">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B92">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E92" t="s">
         <v>104</v>
@@ -3093,69 +3093,69 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B93">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C93">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B94">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C94">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B95">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C95">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E95" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B96">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C96">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E96" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B97">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C97">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E97" t="s">
         <v>136</v>
@@ -3163,27 +3163,27 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B98">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C98">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E98" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B99">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C99">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E99" t="s">
         <v>134</v>
@@ -3191,27 +3191,27 @@
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B100">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B101">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C101">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E101" t="s">
         <v>102</v>
@@ -3219,41 +3219,41 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B102">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C102">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B103">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C103">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E103" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B104">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C104">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E104" t="s">
         <v>109</v>
@@ -3261,27 +3261,27 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B105">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C105">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E105" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B106">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
         <v>127</v>
@@ -3289,13 +3289,13 @@
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B107">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C107">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E107" t="s">
         <v>128</v>
@@ -3303,55 +3303,55 @@
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B108">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C108">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B109">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C109">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E109" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110">
+        <v>129</v>
+      </c>
+      <c r="C110">
+        <v>129</v>
+      </c>
+      <c r="E110" t="s">
         <v>130</v>
-      </c>
-      <c r="C110">
-        <v>130</v>
-      </c>
-      <c r="E110" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B111">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C111">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E111" t="s">
         <v>132</v>
@@ -3359,27 +3359,27 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B112">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C112">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E112" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B113">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C113">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E113" t="s">
         <v>117</v>
@@ -3387,69 +3387,69 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B114">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C114">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B115">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E115" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B116">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C116">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E116" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B117">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C117">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E117" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B118">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C118">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E118" t="s">
         <v>100</v>
@@ -3457,58 +3457,72 @@
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B119">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C119">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C120">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E120" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B121">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C121">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E121" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122">
         <v>141</v>
       </c>
-      <c r="B122">
-        <v>142</v>
-      </c>
       <c r="C122">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E122" t="s">
-        <v>139</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>142</v>
+      </c>
+      <c r="B123">
+        <v>142</v>
+      </c>
+      <c r="C123">
+        <v>142</v>
+      </c>
+      <c r="E123" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3526,7 +3540,7 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3538,27 +3552,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>

--- a/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
+++ b/ONCHO/Breeding Site Survey/Benin/bj_oncho_bsa_2_capture_form_202207.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="183">
   <si>
     <t>type</t>
   </si>
@@ -90,6 +90,18 @@
     <t>Sélectionner un district</t>
   </si>
   <si>
+    <t>select_one health_facility</t>
+  </si>
+  <si>
+    <t>b_health_area</t>
+  </si>
+  <si>
+    <t>Aire sanitaire</t>
+  </si>
+  <si>
+    <t>district = ${b_district}</t>
+  </si>
+  <si>
     <t>select_one site</t>
   </si>
   <si>
@@ -102,7 +114,7 @@
     <t>Le nom de la communauté où vous êtes</t>
   </si>
   <si>
-    <t>district = ${b_district}</t>
+    <t>health_facility = ${b_health_area}</t>
   </si>
   <si>
     <t>select_one code_site</t>
@@ -117,69 +129,66 @@
     <t>site = ${b_site}</t>
   </si>
   <si>
+    <t>select_one capture_point</t>
+  </si>
+  <si>
+    <t>b_capture_point</t>
+  </si>
+  <si>
+    <t>Point de capture</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>b_date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>geopoint</t>
+  </si>
+  <si>
+    <t>b_gps</t>
+  </si>
+  <si>
+    <t>Collectez les données GPS</t>
+  </si>
+  <si>
+    <t>Fonctionne mieux à l'extérieur des bâtiments</t>
+  </si>
+  <si>
+    <t>select_one time_liste</t>
+  </si>
+  <si>
+    <t>b_hour</t>
+  </si>
+  <si>
+    <t>Sélectionner l'heure</t>
+  </si>
+  <si>
+    <t>minimal</t>
+  </si>
+  <si>
+    <t>b_nb_blackflies1</t>
+  </si>
+  <si>
+    <t>Nombre de simulies capturées</t>
+  </si>
+  <si>
+    <t>select_one weather_list</t>
+  </si>
+  <si>
+    <t>b_weather</t>
+  </si>
+  <si>
+    <t>Observation climatique</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>b_capture_point</t>
-  </si>
-  <si>
-    <t>Point de capture</t>
-  </si>
-  <si>
-    <t>b_health_area</t>
-  </si>
-  <si>
-    <t>Aire sanitaire</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>b_date</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>geopoint</t>
-  </si>
-  <si>
-    <t>b_gps</t>
-  </si>
-  <si>
-    <t>Collectez les données GPS</t>
-  </si>
-  <si>
-    <t>Fonctionne mieux à l'extérieur des bâtiments</t>
-  </si>
-  <si>
-    <t>select_one time_liste</t>
-  </si>
-  <si>
-    <t>b_hour</t>
-  </si>
-  <si>
-    <t>Sélectionner l'heure</t>
-  </si>
-  <si>
-    <t>minimal</t>
-  </si>
-  <si>
-    <t>b_nb_blackflies1</t>
-  </si>
-  <si>
-    <t>Nombre de simulies capturées</t>
-  </si>
-  <si>
-    <t>select_one weather_list</t>
-  </si>
-  <si>
-    <t>b_weather</t>
-  </si>
-  <si>
-    <t>Observation climatique</t>
-  </si>
-  <si>
     <t>b_notes</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>district</t>
   </si>
   <si>
+    <t>health_facility</t>
+  </si>
+  <si>
     <t>site</t>
   </si>
   <si>
@@ -255,193 +267,280 @@
     <t>Ensoleillé</t>
   </si>
   <si>
+    <t>capture_point</t>
+  </si>
+  <si>
+    <t>Gogounou</t>
+  </si>
+  <si>
+    <t>Boukoumbé</t>
+  </si>
+  <si>
+    <t>Kouandé</t>
+  </si>
+  <si>
+    <t>Toucountouna</t>
+  </si>
+  <si>
+    <t>Nikki</t>
+  </si>
+  <si>
+    <t>Tchaourou </t>
+  </si>
+  <si>
+    <t>Bantè</t>
+  </si>
+  <si>
+    <t>Dassa-Zoumè</t>
+  </si>
+  <si>
+    <t>Glazoué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ouèssè </t>
+  </si>
+  <si>
+    <t>Savalou</t>
+  </si>
+  <si>
+    <t>Savè</t>
+  </si>
+  <si>
     <t>Aplahoué</t>
   </si>
   <si>
-    <t>Bantè</t>
+    <t>Dogbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klouekanmè </t>
   </si>
   <si>
     <t>Bassila </t>
   </si>
   <si>
-    <t>Boukoumbé</t>
-  </si>
-  <si>
-    <t>Dassa-Zoumè</t>
+    <t>Djougou</t>
+  </si>
+  <si>
+    <t>Ouaké</t>
+  </si>
+  <si>
+    <t>Kétou</t>
   </si>
   <si>
     <t>Djidja</t>
   </si>
   <si>
-    <t>Djougou</t>
-  </si>
-  <si>
-    <t>Dogbo</t>
-  </si>
-  <si>
-    <t>Glazoué</t>
-  </si>
-  <si>
-    <t>Gogounou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Klouekanmè </t>
-  </si>
-  <si>
-    <t>Kouandé</t>
-  </si>
-  <si>
-    <t>Kétou</t>
-  </si>
-  <si>
-    <t>Nikki</t>
-  </si>
-  <si>
-    <t>Ouaké</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ouèssè </t>
-  </si>
-  <si>
-    <t>Savalou</t>
-  </si>
-  <si>
-    <t>Savè</t>
-  </si>
-  <si>
-    <t>Tchaourou </t>
-  </si>
-  <si>
-    <t>Toucountouna</t>
-  </si>
-  <si>
     <t>Zangnanado</t>
   </si>
   <si>
+    <t>Aplahoué Centre</t>
+  </si>
+  <si>
+    <t>Pira</t>
+  </si>
+  <si>
+    <t>Doguè</t>
+  </si>
+  <si>
+    <t>Igbomakro</t>
+  </si>
+  <si>
+    <t>Salmanga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natta </t>
+  </si>
+  <si>
+    <t>Adjanoudoho</t>
+  </si>
+  <si>
+    <t>Betecoucou</t>
+  </si>
+  <si>
+    <t>Paouingnan</t>
+  </si>
+  <si>
+    <t>Monsourou</t>
+  </si>
+  <si>
+    <t>Partago</t>
+  </si>
+  <si>
+    <t>Tokotoko</t>
+  </si>
+  <si>
+    <t>Aklampa</t>
+  </si>
+  <si>
+    <t>Bethel</t>
+  </si>
+  <si>
+    <t>Sowignandji</t>
+  </si>
+  <si>
+    <t>Zougou Pantrossi</t>
+  </si>
+  <si>
+    <t>Ahogbéya</t>
+  </si>
+  <si>
+    <t>Foo Tancé</t>
+  </si>
+  <si>
+    <t>Makrou</t>
+  </si>
+  <si>
+    <t>Adakplamè</t>
+  </si>
+  <si>
+    <t>Tchalinga</t>
+  </si>
+  <si>
+    <t>Djègbé</t>
+  </si>
+  <si>
+    <t>Vossa</t>
+  </si>
+  <si>
+    <t>Djallakou</t>
+  </si>
+  <si>
+    <t>Besse</t>
+  </si>
+  <si>
+    <t>Bétérou</t>
+  </si>
+  <si>
+    <t>Kika</t>
+  </si>
+  <si>
+    <t>Kpari</t>
+  </si>
+  <si>
+    <t>Wari Maro</t>
+  </si>
+  <si>
+    <t>Kouarfa</t>
+  </si>
+  <si>
+    <t>Banamè</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agonlin Pahou </t>
+  </si>
+  <si>
+    <t>Agbogbomey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahogbeya </t>
+  </si>
+  <si>
+    <t>Centrédji</t>
+  </si>
+  <si>
     <t>Dokomin</t>
   </si>
   <si>
     <t>Zohoumey</t>
   </si>
   <si>
+    <t xml:space="preserve"> Ayissakpo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samiondji </t>
+  </si>
+  <si>
+    <t>Djabata</t>
+  </si>
+  <si>
+    <t>Okpa</t>
+  </si>
+  <si>
+    <t>Betecoukou</t>
+  </si>
+  <si>
+    <t>Béthel</t>
+  </si>
+  <si>
+    <t>Koutagou</t>
+  </si>
+  <si>
+    <t>Oubérou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gboguikpa</t>
+  </si>
+  <si>
+    <t>Konkondji</t>
+  </si>
+  <si>
+    <t>Sokpounta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kpodavé </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjimon </t>
+  </si>
+  <si>
+    <t>Kabaré</t>
+  </si>
+  <si>
+    <t>Kika barrage</t>
+  </si>
+  <si>
+    <t>Wabou</t>
+  </si>
+  <si>
+    <t>Sui pont</t>
+  </si>
+  <si>
+    <t>Kakatéou</t>
+  </si>
+  <si>
+    <t>Kouporgou</t>
+  </si>
+  <si>
+    <t>Kali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pont Sora </t>
+  </si>
+  <si>
+    <t>Atcherigbé gare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demsirou </t>
+  </si>
+  <si>
     <t>Arigbokoto</t>
   </si>
   <si>
     <t>Okouta-Osse</t>
   </si>
   <si>
-    <t xml:space="preserve">Adjimon </t>
-  </si>
-  <si>
     <t>Angaradebou</t>
   </si>
   <si>
-    <t>Igbomakro</t>
-  </si>
-  <si>
-    <t>Kouporgou</t>
-  </si>
-  <si>
-    <t>Koutagou</t>
-  </si>
-  <si>
-    <t>Agbogbomey</t>
-  </si>
-  <si>
-    <t>Atcherigbé gare</t>
-  </si>
-  <si>
-    <t>Betecoukou</t>
-  </si>
-  <si>
-    <t>Kakatéou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demsirou </t>
+    <t>Agbado</t>
+  </si>
+  <si>
+    <t>Djanmadji</t>
+  </si>
+  <si>
+    <t>Gbongbontouta</t>
   </si>
   <si>
     <t xml:space="preserve">Donga pont </t>
   </si>
   <si>
-    <t>Kpodavé (pont)</t>
-  </si>
-  <si>
-    <t>Béthel</t>
-  </si>
-  <si>
-    <t>Centrédji</t>
-  </si>
-  <si>
-    <t>Djanmadji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zougou-Pantrossi Hammeau </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahogbeya </t>
-  </si>
-  <si>
-    <t>Kabaré</t>
-  </si>
-  <si>
-    <t>Makrou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agonlin Pahou </t>
-  </si>
-  <si>
-    <t>Kali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pont Sora </t>
-  </si>
-  <si>
-    <t>Gbongbontouta</t>
-  </si>
-  <si>
-    <t>Sokpounta</t>
-  </si>
-  <si>
     <t>Wokpa</t>
   </si>
   <si>
-    <t>Agbado</t>
-  </si>
-  <si>
-    <t>Gboguikpa</t>
-  </si>
-  <si>
-    <t>Konkondji</t>
-  </si>
-  <si>
-    <t>Djabata</t>
-  </si>
-  <si>
-    <t>Okpa</t>
-  </si>
-  <si>
-    <t>Bétérou</t>
-  </si>
-  <si>
-    <t>Kika barrage</t>
-  </si>
-  <si>
-    <t>Oubérou</t>
-  </si>
-  <si>
-    <t>Sui pont</t>
-  </si>
-  <si>
     <t>Térou pont</t>
   </si>
   <si>
-    <t>Wabou</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ayissakpo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samiondji </t>
+    <t xml:space="preserve">Zougou-Pantrossi </t>
   </si>
   <si>
     <t>code_site</t>
@@ -459,10 +558,10 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe V3</t>
-  </si>
-  <si>
-    <t>bj_oncho_bsa_2_capture_form_202207_v3</t>
+    <t>(Juillet 2022) 2. Fiche de collecte des Simulies par équipe V4</t>
+  </si>
+  <si>
+    <t>bj_oncho_bsa_2_capture_form_202207_v4</t>
   </si>
   <si>
     <t>French</t>
@@ -473,10 +572,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -510,9 +609,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -525,11 +624,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,7 +654,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -564,8 +677,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -578,23 +715,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -614,17 +745,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,30 +755,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -676,7 +775,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,13 +829,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,25 +871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,7 +913,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -772,91 +955,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,6 +1047,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -967,166 +1081,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1513,11 +1612,11 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1639,9 +1738,7 @@
       <c r="C4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
-      </c>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -1651,21 +1748,23 @@
         <v>20</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="9"/>
     </row>
     <row r="5" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1698,18 +1797,20 @@
       <c r="J6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="M6" s="9"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A7" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1725,13 +1826,13 @@
     </row>
     <row r="8" s="3" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -1747,16 +1848,16 @@
     </row>
     <row r="9" s="3" customFormat="1" spans="1:12">
       <c r="A9" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="6"/>
@@ -1771,17 +1872,17 @@
     </row>
     <row r="10" s="3" customFormat="1" spans="1:12">
       <c r="A10" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="8"/>
@@ -1798,10 +1899,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="7"/>
@@ -1817,13 +1918,13 @@
     </row>
     <row r="12" s="3" customFormat="1" spans="1:12">
       <c r="A12" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
@@ -1839,13 +1940,13 @@
     </row>
     <row r="13" s="3" customFormat="1" spans="1:12">
       <c r="A13" s="6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="15"/>
@@ -1859,10 +1960,10 @@
     </row>
     <row r="14" s="3" customFormat="1" spans="1:12">
       <c r="A14" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -1877,10 +1978,10 @@
     </row>
     <row r="15" s="3" customFormat="1" spans="1:12">
       <c r="A15" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -1932,24 +2033,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="F120:F161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3851851851852" customWidth="1"/>
     <col min="2" max="2" width="39.6074074074074" customWidth="1"/>
     <col min="3" max="3" width="13.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1958,750 +2059,747 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>80</v>
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>83</v>
+        <v>86</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" t="s">
-        <v>84</v>
+        <v>87</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" t="s">
-        <v>100</v>
+        <v>64</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" t="s">
-        <v>101</v>
-      </c>
-      <c r="C40" t="s">
-        <v>101</v>
-      </c>
-      <c r="D40" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B54" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C54" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D58" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D59" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C60" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B64" t="s">
         <v>125</v>
@@ -2710,12 +2808,12 @@
         <v>125</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>126</v>
@@ -2729,7 +2827,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
         <v>127</v>
@@ -2738,12 +2836,12 @@
         <v>127</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>128</v>
@@ -2757,27 +2855,27 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D68" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
         <v>95</v>
@@ -2785,744 +2883,1303 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C70" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D70" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B75" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" t="s">
         <v>136</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>136</v>
       </c>
-      <c r="D75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>62</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="E77" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>66</v>
+      </c>
+      <c r="B78" t="s">
         <v>137</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>137</v>
       </c>
-      <c r="D76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>62</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="E78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>66</v>
+      </c>
+      <c r="B79" t="s">
         <v>138</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>138</v>
       </c>
-      <c r="D77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="E79" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B80" t="s">
         <v>139</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>139</v>
       </c>
-      <c r="D78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>66</v>
+      </c>
+      <c r="B81" t="s">
         <v>140</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>140</v>
       </c>
-      <c r="D79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>62</v>
-      </c>
-      <c r="B80" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" t="s">
-        <v>141</v>
-      </c>
-      <c r="D80" t="s">
-        <v>99</v>
+      <c r="E81" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82">
-        <v>101</v>
-      </c>
-      <c r="C82">
-        <v>101</v>
+        <v>66</v>
+      </c>
+      <c r="B82" t="s">
+        <v>141</v>
+      </c>
+      <c r="C82" t="s">
+        <v>141</v>
       </c>
       <c r="E82" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
+        <v>66</v>
+      </c>
+      <c r="B83" t="s">
         <v>142</v>
       </c>
-      <c r="B83">
-        <v>102</v>
-      </c>
-      <c r="C83">
-        <v>102</v>
+      <c r="C83" t="s">
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>142</v>
-      </c>
-      <c r="B84">
-        <v>103</v>
-      </c>
-      <c r="C84">
-        <v>103</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B84" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" t="s">
+        <v>143</v>
+      </c>
+      <c r="D84"/>
       <c r="E84" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85">
-        <v>104</v>
-      </c>
-      <c r="C85">
-        <v>104</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" t="s">
+        <v>144</v>
+      </c>
+      <c r="D85"/>
       <c r="E85" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>142</v>
-      </c>
-      <c r="B86">
-        <v>105</v>
-      </c>
-      <c r="C86">
-        <v>105</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B86" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" t="s">
+        <v>145</v>
+      </c>
+      <c r="D86"/>
       <c r="E86" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87">
-        <v>106</v>
-      </c>
-      <c r="C87">
-        <v>106</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>142</v>
-      </c>
-      <c r="B88">
-        <v>107</v>
-      </c>
-      <c r="C88">
-        <v>107</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+      <c r="C88" t="s">
+        <v>147</v>
+      </c>
+      <c r="D88"/>
       <c r="E88" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>142</v>
-      </c>
-      <c r="B89">
-        <v>108</v>
-      </c>
-      <c r="C89">
-        <v>108</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B89" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" t="s">
+        <v>148</v>
+      </c>
+      <c r="D89"/>
       <c r="E89" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90">
-        <v>109</v>
-      </c>
-      <c r="C90">
-        <v>109</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B90" t="s">
+        <v>130</v>
+      </c>
+      <c r="C90" t="s">
+        <v>130</v>
+      </c>
+      <c r="D90"/>
       <c r="E90" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91">
-        <v>110</v>
-      </c>
-      <c r="C91">
-        <v>110</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B91" t="s">
+        <v>149</v>
+      </c>
+      <c r="C91" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91"/>
       <c r="E91" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>142</v>
-      </c>
-      <c r="B92">
-        <v>111</v>
-      </c>
-      <c r="C92">
-        <v>111</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B92" t="s">
+        <v>150</v>
+      </c>
+      <c r="C92" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92"/>
       <c r="E92" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B93">
-        <v>112</v>
-      </c>
-      <c r="C93">
-        <v>112</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B93" t="s">
+        <v>151</v>
+      </c>
+      <c r="C93" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93"/>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>142</v>
-      </c>
-      <c r="B94">
-        <v>113</v>
-      </c>
-      <c r="C94">
-        <v>113</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B94" t="s">
+        <v>152</v>
+      </c>
+      <c r="C94" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94"/>
       <c r="E94" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>142</v>
-      </c>
-      <c r="B95">
-        <v>114</v>
-      </c>
-      <c r="C95">
-        <v>114</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B95" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95"/>
       <c r="E95" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>142</v>
-      </c>
-      <c r="B96">
-        <v>115</v>
-      </c>
-      <c r="C96">
-        <v>115</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B96" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96"/>
       <c r="E96" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97">
-        <v>116</v>
-      </c>
-      <c r="C97">
-        <v>116</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B97" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" t="s">
+        <v>155</v>
+      </c>
+      <c r="D97"/>
       <c r="E97" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>142</v>
-      </c>
-      <c r="B98">
-        <v>117</v>
-      </c>
-      <c r="C98">
-        <v>117</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98"/>
       <c r="E98" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>142</v>
-      </c>
-      <c r="B99">
-        <v>118</v>
-      </c>
-      <c r="C99">
-        <v>118</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B99" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" t="s">
+        <v>156</v>
+      </c>
+      <c r="D99"/>
       <c r="E99" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>142</v>
-      </c>
-      <c r="B100">
-        <v>119</v>
-      </c>
-      <c r="C100">
-        <v>119</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>157</v>
+      </c>
+      <c r="C100" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100"/>
       <c r="E100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>142</v>
-      </c>
-      <c r="B101">
-        <v>120</v>
-      </c>
-      <c r="C101">
-        <v>120</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" t="s">
+        <v>158</v>
+      </c>
+      <c r="D101"/>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>142</v>
-      </c>
-      <c r="B102">
-        <v>121</v>
-      </c>
-      <c r="C102">
-        <v>121</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" t="s">
+        <v>123</v>
+      </c>
+      <c r="D102"/>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>142</v>
-      </c>
-      <c r="B103">
-        <v>122</v>
-      </c>
-      <c r="C103">
-        <v>122</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+      <c r="C103" t="s">
+        <v>159</v>
+      </c>
+      <c r="D103"/>
       <c r="E103" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>142</v>
-      </c>
-      <c r="B104">
-        <v>123</v>
-      </c>
-      <c r="C104">
-        <v>123</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+      <c r="C104" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104"/>
       <c r="E104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105">
-        <v>124</v>
-      </c>
-      <c r="C105">
-        <v>124</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" t="s">
+        <v>161</v>
+      </c>
+      <c r="D105"/>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>142</v>
-      </c>
-      <c r="B106">
-        <v>125</v>
-      </c>
-      <c r="C106">
-        <v>125</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B106" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" t="s">
+        <v>162</v>
+      </c>
+      <c r="D106"/>
       <c r="E106" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>142</v>
-      </c>
-      <c r="B107">
-        <v>126</v>
-      </c>
-      <c r="C107">
-        <v>126</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B107" t="s">
+        <v>163</v>
+      </c>
+      <c r="C107" t="s">
+        <v>163</v>
+      </c>
+      <c r="D107"/>
       <c r="E107" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>142</v>
-      </c>
-      <c r="B108">
-        <v>127</v>
-      </c>
-      <c r="C108">
-        <v>127</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B108" t="s">
+        <v>164</v>
+      </c>
+      <c r="C108" t="s">
+        <v>164</v>
+      </c>
+      <c r="D108"/>
       <c r="E108" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>142</v>
-      </c>
-      <c r="B109">
-        <v>128</v>
-      </c>
-      <c r="C109">
-        <v>128</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B109" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" t="s">
+        <v>165</v>
+      </c>
+      <c r="D109"/>
       <c r="E109" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>142</v>
-      </c>
-      <c r="B110">
-        <v>129</v>
-      </c>
-      <c r="C110">
-        <v>129</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B110" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" t="s">
+        <v>166</v>
+      </c>
+      <c r="D110"/>
       <c r="E110" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>142</v>
-      </c>
-      <c r="B111">
-        <v>130</v>
-      </c>
-      <c r="C111">
-        <v>130</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B111" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" t="s">
+        <v>167</v>
+      </c>
+      <c r="D111"/>
       <c r="E111" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>142</v>
-      </c>
-      <c r="B112">
-        <v>131</v>
-      </c>
-      <c r="C112">
-        <v>131</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B112" t="s">
+        <v>168</v>
+      </c>
+      <c r="C112" t="s">
+        <v>168</v>
+      </c>
+      <c r="D112"/>
       <c r="E112" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113">
-        <v>132</v>
-      </c>
-      <c r="C113">
-        <v>132</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B113" t="s">
+        <v>169</v>
+      </c>
+      <c r="C113" t="s">
+        <v>169</v>
+      </c>
+      <c r="D113"/>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>142</v>
-      </c>
-      <c r="B114">
-        <v>133</v>
-      </c>
-      <c r="C114">
-        <v>133</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B114" t="s">
+        <v>170</v>
+      </c>
+      <c r="C114" t="s">
+        <v>170</v>
+      </c>
+      <c r="D114"/>
       <c r="E114" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115">
-        <v>134</v>
-      </c>
-      <c r="C115">
-        <v>134</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>171</v>
+      </c>
+      <c r="C115" t="s">
+        <v>171</v>
+      </c>
+      <c r="D115"/>
       <c r="E115" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>142</v>
-      </c>
-      <c r="B116">
-        <v>135</v>
-      </c>
-      <c r="C116">
-        <v>135</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B116" t="s">
+        <v>172</v>
+      </c>
+      <c r="C116" t="s">
+        <v>172</v>
+      </c>
+      <c r="D116"/>
       <c r="E116" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>142</v>
-      </c>
-      <c r="B117">
-        <v>136</v>
-      </c>
-      <c r="C117">
-        <v>136</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B117" t="s">
+        <v>173</v>
+      </c>
+      <c r="C117" t="s">
+        <v>173</v>
+      </c>
+      <c r="D117"/>
       <c r="E117" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>174</v>
+      </c>
+      <c r="C118" t="s">
+        <v>174</v>
+      </c>
+      <c r="D118"/>
+      <c r="E118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>175</v>
+      </c>
+      <c r="B120">
+        <v>101</v>
+      </c>
+      <c r="C120">
+        <v>101</v>
+      </c>
+      <c r="D120"/>
+      <c r="F120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>175</v>
+      </c>
+      <c r="B121">
+        <v>102</v>
+      </c>
+      <c r="C121">
+        <v>102</v>
+      </c>
+      <c r="D121"/>
+      <c r="F121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>175</v>
+      </c>
+      <c r="B122">
+        <v>103</v>
+      </c>
+      <c r="C122">
+        <v>103</v>
+      </c>
+      <c r="D122"/>
+      <c r="F122" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>175</v>
+      </c>
+      <c r="B123">
+        <v>104</v>
+      </c>
+      <c r="C123">
+        <v>104</v>
+      </c>
+      <c r="D123"/>
+      <c r="F123" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>175</v>
+      </c>
+      <c r="B124">
+        <v>105</v>
+      </c>
+      <c r="C124">
+        <v>105</v>
+      </c>
+      <c r="D124"/>
+      <c r="F124" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>175</v>
+      </c>
+      <c r="B125">
+        <v>106</v>
+      </c>
+      <c r="C125">
+        <v>106</v>
+      </c>
+      <c r="D125"/>
+      <c r="F125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>175</v>
+      </c>
+      <c r="B126">
+        <v>107</v>
+      </c>
+      <c r="C126">
+        <v>107</v>
+      </c>
+      <c r="F126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+      <c r="B127">
+        <v>108</v>
+      </c>
+      <c r="C127">
+        <v>108</v>
+      </c>
+      <c r="F127" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>175</v>
+      </c>
+      <c r="B128">
+        <v>109</v>
+      </c>
+      <c r="C128">
+        <v>109</v>
+      </c>
+      <c r="F128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>175</v>
+      </c>
+      <c r="B129">
+        <v>110</v>
+      </c>
+      <c r="C129">
+        <v>110</v>
+      </c>
+      <c r="F129" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>175</v>
+      </c>
+      <c r="B130">
+        <v>111</v>
+      </c>
+      <c r="C130">
+        <v>111</v>
+      </c>
+      <c r="F130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" t="s">
+        <v>175</v>
+      </c>
+      <c r="B131">
+        <v>112</v>
+      </c>
+      <c r="C131">
+        <v>112</v>
+      </c>
+      <c r="F131" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132">
+        <v>113</v>
+      </c>
+      <c r="C132">
+        <v>113</v>
+      </c>
+      <c r="F132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>175</v>
+      </c>
+      <c r="B133">
+        <v>114</v>
+      </c>
+      <c r="C133">
+        <v>114</v>
+      </c>
+      <c r="F133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>175</v>
+      </c>
+      <c r="B134">
+        <v>115</v>
+      </c>
+      <c r="C134">
+        <v>115</v>
+      </c>
+      <c r="F134" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>175</v>
+      </c>
+      <c r="B135">
+        <v>116</v>
+      </c>
+      <c r="C135">
+        <v>116</v>
+      </c>
+      <c r="F135" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>175</v>
+      </c>
+      <c r="B136">
+        <v>117</v>
+      </c>
+      <c r="C136">
+        <v>117</v>
+      </c>
+      <c r="F136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>175</v>
+      </c>
+      <c r="B137">
+        <v>118</v>
+      </c>
+      <c r="C137">
+        <v>118</v>
+      </c>
+      <c r="F137" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138">
+        <v>119</v>
+      </c>
+      <c r="C138">
+        <v>119</v>
+      </c>
+      <c r="F138" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>175</v>
+      </c>
+      <c r="B139">
+        <v>120</v>
+      </c>
+      <c r="C139">
+        <v>120</v>
+      </c>
+      <c r="F139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>175</v>
+      </c>
+      <c r="B140">
+        <v>121</v>
+      </c>
+      <c r="C140">
+        <v>121</v>
+      </c>
+      <c r="F140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>175</v>
+      </c>
+      <c r="B141">
+        <v>122</v>
+      </c>
+      <c r="C141">
+        <v>122</v>
+      </c>
+      <c r="F141" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142">
+        <v>123</v>
+      </c>
+      <c r="C142">
+        <v>123</v>
+      </c>
+      <c r="F142" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>175</v>
+      </c>
+      <c r="B143">
+        <v>124</v>
+      </c>
+      <c r="C143">
+        <v>124</v>
+      </c>
+      <c r="F143" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144">
+        <v>125</v>
+      </c>
+      <c r="C144">
+        <v>125</v>
+      </c>
+      <c r="F144" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>175</v>
+      </c>
+      <c r="B145">
+        <v>126</v>
+      </c>
+      <c r="C145">
+        <v>126</v>
+      </c>
+      <c r="F145" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146">
+        <v>127</v>
+      </c>
+      <c r="C146">
+        <v>127</v>
+      </c>
+      <c r="F146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147">
+        <v>128</v>
+      </c>
+      <c r="C147">
+        <v>128</v>
+      </c>
+      <c r="F147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148">
+        <v>129</v>
+      </c>
+      <c r="C148">
+        <v>129</v>
+      </c>
+      <c r="F148" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149">
+        <v>130</v>
+      </c>
+      <c r="C149">
+        <v>130</v>
+      </c>
+      <c r="F149" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>175</v>
+      </c>
+      <c r="B150">
+        <v>131</v>
+      </c>
+      <c r="C150">
+        <v>131</v>
+      </c>
+      <c r="F150" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151">
+        <v>132</v>
+      </c>
+      <c r="C151">
+        <v>132</v>
+      </c>
+      <c r="F151" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+      <c r="B152">
+        <v>133</v>
+      </c>
+      <c r="C152">
+        <v>133</v>
+      </c>
+      <c r="F152" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153">
+        <v>134</v>
+      </c>
+      <c r="C153">
+        <v>134</v>
+      </c>
+      <c r="F153" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>175</v>
+      </c>
+      <c r="B154">
+        <v>135</v>
+      </c>
+      <c r="C154">
+        <v>135</v>
+      </c>
+      <c r="F154" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155">
+        <v>136</v>
+      </c>
+      <c r="C155">
+        <v>136</v>
+      </c>
+      <c r="F155" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>175</v>
+      </c>
+      <c r="B156">
+        <v>137</v>
+      </c>
+      <c r="C156">
+        <v>137</v>
+      </c>
+      <c r="F156" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>175</v>
+      </c>
+      <c r="B157">
+        <v>138</v>
+      </c>
+      <c r="C157">
+        <v>138</v>
+      </c>
+      <c r="F157" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158">
+        <v>139</v>
+      </c>
+      <c r="C158">
+        <v>139</v>
+      </c>
+      <c r="F158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>175</v>
+      </c>
+      <c r="B159">
+        <v>140</v>
+      </c>
+      <c r="C159">
+        <v>140</v>
+      </c>
+      <c r="F159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>175</v>
+      </c>
+      <c r="B160">
+        <v>141</v>
+      </c>
+      <c r="C160">
+        <v>141</v>
+      </c>
+      <c r="F160" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+      <c r="B161">
         <v>142</v>
       </c>
-      <c r="B118">
-        <v>137</v>
-      </c>
-      <c r="C118">
-        <v>137</v>
-      </c>
-      <c r="E118" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
+      <c r="C161">
         <v>142</v>
       </c>
-      <c r="B119">
-        <v>138</v>
-      </c>
-      <c r="C119">
-        <v>138</v>
-      </c>
-      <c r="E119" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
+      <c r="F161" t="s">
         <v>142</v>
-      </c>
-      <c r="B120">
-        <v>139</v>
-      </c>
-      <c r="C120">
-        <v>139</v>
-      </c>
-      <c r="E120" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121">
-        <v>140</v>
-      </c>
-      <c r="C121">
-        <v>140</v>
-      </c>
-      <c r="E121" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>142</v>
-      </c>
-      <c r="B122">
-        <v>141</v>
-      </c>
-      <c r="C122">
-        <v>141</v>
-      </c>
-      <c r="E122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>142</v>
-      </c>
-      <c r="B123">
-        <v>142</v>
-      </c>
-      <c r="C123">
-        <v>142</v>
-      </c>
-      <c r="E123" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3552,27 +4209,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
